--- a/lab5/2/pMOS_exp2.xlsx
+++ b/lab5/2/pMOS_exp2.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="pMOS_exp2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1533,11 +1533,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="81186176"/>
-        <c:axId val="81185600"/>
+        <c:axId val="47585472"/>
+        <c:axId val="47586048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81186176"/>
+        <c:axId val="47585472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1547,12 +1547,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81185600"/>
+        <c:crossAx val="47586048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81185600"/>
+        <c:axId val="47586048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1563,7 +1563,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81186176"/>
+        <c:crossAx val="47585472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1589,16 +1589,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1910,7 +1910,7 @@
   <dimension ref="A1:C151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="B2" sqref="A2:B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
